--- a/DxMonth36.xlsx
+++ b/DxMonth36.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salahmekhalalati/Documents/R_projects/Listingvols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salah\Documents\R _projects\ADNI_Hippocampus_Dataframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{862E9180-782E-8A41-9122-A8EA5097733D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8451E-79D7-4B01-B3A4-1CDBA911A870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2740" windowWidth="26440" windowHeight="15260" xr2:uid="{0901FCCE-ACF2-9F49-8EC0-2BACC7ED8FB4}"/>
+    <workbookView xWindow="390" yWindow="360" windowWidth="18195" windowHeight="11160" xr2:uid="{0901FCCE-ACF2-9F49-8EC0-2BACC7ED8FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>RID</t>
-  </si>
-  <si>
-    <t>PTID</t>
   </si>
   <si>
     <t>SITEID</t>
@@ -1026,6 +1023,9 @@
   <si>
     <t>941_S_1203</t>
   </si>
+  <si>
+    <t>subject</t>
+  </si>
 </sst>
 </file>
 
@@ -1382,12 +1382,12 @@
   <dimension ref="A1:BB268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1398,162 +1398,162 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
       </c>
       <c r="B2">
         <v>6684</v>
@@ -1562,16 +1562,16 @@
         <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1">
         <v>39959</v>
@@ -1691,9 +1691,9 @@
         <v>39959</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>6628</v>
@@ -1702,16 +1702,16 @@
         <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1">
         <v>39938</v>
@@ -1831,9 +1831,9 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>6830</v>
@@ -1842,16 +1842,16 @@
         <v>685</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1">
         <v>40022</v>
@@ -1971,9 +1971,9 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>6876</v>
@@ -1982,16 +1982,16 @@
         <v>729</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1">
         <v>40044</v>
@@ -2111,9 +2111,9 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>7158</v>
@@ -2122,16 +2122,16 @@
         <v>1155</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1">
         <v>40190</v>
@@ -2251,9 +2251,9 @@
         <v>40190</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>7290</v>
@@ -2262,16 +2262,16 @@
         <v>1261</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
         <v>40234</v>
@@ -2391,9 +2391,9 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>7332</v>
@@ -2402,16 +2402,16 @@
         <v>1268</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1">
         <v>40246</v>
@@ -2531,9 +2531,9 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>7288</v>
@@ -2542,16 +2542,16 @@
         <v>1280</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1">
         <v>40234</v>
@@ -2671,9 +2671,9 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>7164</v>
@@ -2682,16 +2682,16 @@
         <v>907</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1">
         <v>40191</v>
@@ -2814,9 +2814,9 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>7046</v>
@@ -2825,16 +2825,16 @@
         <v>908</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1">
         <v>40123</v>
@@ -2957,9 +2957,9 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>7126</v>
@@ -2968,16 +2968,16 @@
         <v>981</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1">
         <v>40163</v>
@@ -3097,9 +3097,9 @@
         <v>40163</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>7696</v>
@@ -3108,16 +3108,16 @@
         <v>1057</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1">
         <v>40686</v>
@@ -3240,9 +3240,9 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>7698</v>
@@ -3251,16 +3251,16 @@
         <v>1074</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1">
         <v>40686</v>
@@ -3380,9 +3380,9 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>7248</v>
@@ -3391,16 +3391,16 @@
         <v>1122</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1">
         <v>40226</v>
@@ -3523,9 +3523,9 @@
         <v>40232</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>6794</v>
@@ -3534,16 +3534,16 @@
         <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1">
         <v>40007</v>
@@ -3663,9 +3663,9 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>6934</v>
@@ -3674,16 +3674,16 @@
         <v>546</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1">
         <v>40067</v>
@@ -3803,9 +3803,9 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>6796</v>
@@ -3814,16 +3814,16 @@
         <v>553</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1">
         <v>40007</v>
@@ -3943,9 +3943,9 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>6816</v>
@@ -3954,16 +3954,16 @@
         <v>572</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="1">
         <v>40016</v>
@@ -4083,9 +4083,9 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>6936</v>
@@ -4094,16 +4094,16 @@
         <v>602</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1">
         <v>40067</v>
@@ -4223,9 +4223,9 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>6932</v>
@@ -4234,16 +4234,16 @@
         <v>610</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1">
         <v>40067</v>
@@ -4363,9 +4363,9 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>7600</v>
@@ -4374,16 +4374,16 @@
         <v>498</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1">
         <v>40496</v>
@@ -4503,9 +4503,9 @@
         <v>40496</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>7598</v>
@@ -4514,16 +4514,16 @@
         <v>1130</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1">
         <v>40496</v>
@@ -4643,9 +4643,9 @@
         <v>40496</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>6018</v>
@@ -4654,16 +4654,16 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1">
         <v>39765</v>
@@ -4783,9 +4783,9 @@
         <v>39765</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>6170</v>
@@ -4794,16 +4794,16 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1">
         <v>39812</v>
@@ -4923,9 +4923,9 @@
         <v>39812</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>6190</v>
@@ -4934,16 +4934,16 @@
         <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1">
         <v>39826</v>
@@ -5063,9 +5063,9 @@
         <v>39826</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>6344</v>
@@ -5074,16 +5074,16 @@
         <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <v>39870</v>
@@ -5203,9 +5203,9 @@
         <v>39870</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>6446</v>
@@ -5214,16 +5214,16 @@
         <v>249</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1">
         <v>39885</v>
@@ -5343,9 +5343,9 @@
         <v>39885</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>6760</v>
@@ -5354,16 +5354,16 @@
         <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="1">
         <v>39996</v>
@@ -5483,9 +5483,9 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>6978</v>
@@ -5494,16 +5494,16 @@
         <v>698</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="1">
         <v>40079</v>
@@ -5623,9 +5623,9 @@
         <v>40079</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>7294</v>
@@ -5634,16 +5634,16 @@
         <v>1206</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1">
         <v>40235</v>
@@ -5763,9 +5763,9 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>7292</v>
@@ -5774,16 +5774,16 @@
         <v>1222</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1">
         <v>40235</v>
@@ -5903,9 +5903,9 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>7010</v>
@@ -5914,16 +5914,16 @@
         <v>751</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1">
         <v>40114</v>
@@ -6043,9 +6043,9 @@
         <v>40114</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>7112</v>
@@ -6054,16 +6054,16 @@
         <v>842</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="1">
         <v>40156</v>
@@ -6183,9 +6183,9 @@
         <v>40156</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>7488</v>
@@ -6194,16 +6194,16 @@
         <v>862</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="1">
         <v>40350</v>
@@ -6323,9 +6323,9 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>7280</v>
@@ -6334,16 +6334,16 @@
         <v>1030</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="1">
         <v>40233</v>
@@ -6463,9 +6463,9 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>6754</v>
@@ -6474,16 +6474,16 @@
         <v>419</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="1">
         <v>39993</v>
@@ -6603,9 +6603,9 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>6916</v>
@@ -6614,16 +6614,16 @@
         <v>420</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="1">
         <v>40064</v>
@@ -6743,9 +6743,9 @@
         <v>40064</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>5970</v>
@@ -6754,16 +6754,16 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>107</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1">
         <v>39748</v>
@@ -6883,9 +6883,9 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>6056</v>
@@ -6894,16 +6894,16 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="1">
         <v>39777</v>
@@ -7023,9 +7023,9 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>6536</v>
@@ -7034,16 +7034,16 @@
         <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41">
         <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="1">
         <v>39905</v>
@@ -7163,9 +7163,9 @@
         <v>39905</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>6610</v>
@@ -7174,16 +7174,16 @@
         <v>362</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1">
         <v>39931</v>
@@ -7303,9 +7303,9 @@
         <v>39931</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>7128</v>
@@ -7314,16 +7314,16 @@
         <v>1080</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43">
         <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="1">
         <v>40163</v>
@@ -7443,9 +7443,9 @@
         <v>40163</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>7300</v>
@@ -7454,16 +7454,16 @@
         <v>1282</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44">
         <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="1">
         <v>40235</v>
@@ -7583,9 +7583,9 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>7504</v>
@@ -7594,16 +7594,16 @@
         <v>1276</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1">
         <v>40367</v>
@@ -7726,9 +7726,9 @@
         <v>40367</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>6654</v>
@@ -7737,16 +7737,16 @@
         <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>110</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="1">
         <v>39948</v>
@@ -7866,9 +7866,9 @@
         <v>39948</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>6746</v>
@@ -7877,16 +7877,16 @@
         <v>519</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1">
         <v>39987</v>
@@ -8006,9 +8006,9 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>6744</v>
@@ -8017,16 +8017,16 @@
         <v>520</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48">
         <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1">
         <v>39987</v>
@@ -8146,9 +8146,9 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>6742</v>
@@ -8157,16 +8157,16 @@
         <v>548</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1">
         <v>39987</v>
@@ -8286,9 +8286,9 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>6800</v>
@@ -8297,16 +8297,16 @@
         <v>558</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50">
         <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1">
         <v>40010</v>
@@ -8426,9 +8426,9 @@
         <v>40010</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>6894</v>
@@ -8437,16 +8437,16 @@
         <v>563</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1">
         <v>40050</v>
@@ -8566,9 +8566,9 @@
         <v>40050</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>7042</v>
@@ -8577,16 +8577,16 @@
         <v>658</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1">
         <v>40122</v>
@@ -8706,9 +8706,9 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>6860</v>
@@ -8717,16 +8717,16 @@
         <v>359</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1">
         <v>40039</v>
@@ -8846,9 +8846,9 @@
         <v>40039</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>6984</v>
@@ -8857,16 +8857,16 @@
         <v>702</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54">
         <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54" s="1">
         <v>40085</v>
@@ -8989,9 +8989,9 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>6392</v>
@@ -9000,16 +9000,16 @@
         <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55" s="1">
         <v>39881</v>
@@ -9129,9 +9129,9 @@
         <v>39881</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>6236</v>
@@ -9140,16 +9140,16 @@
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1">
         <v>39840</v>
@@ -9269,9 +9269,9 @@
         <v>39840</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>6394</v>
@@ -9280,16 +9280,16 @@
         <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="1">
         <v>39881</v>
@@ -9409,9 +9409,9 @@
         <v>39881</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>7574</v>
@@ -9420,16 +9420,16 @@
         <v>1288</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58" s="1">
         <v>40441</v>
@@ -9549,9 +9549,9 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>6462</v>
@@ -9560,16 +9560,16 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59" s="1">
         <v>39888</v>
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="AL59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM59">
         <v>-4</v>
@@ -9689,9 +9689,9 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>6482</v>
@@ -9700,16 +9700,16 @@
         <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H60" s="1">
         <v>39891</v>
@@ -9829,9 +9829,9 @@
         <v>39891</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>6556</v>
@@ -9840,16 +9840,16 @@
         <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H61" s="1">
         <v>39911</v>
@@ -9969,9 +9969,9 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>6614</v>
@@ -9980,16 +9980,16 @@
         <v>337</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62" s="1">
         <v>39932</v>
@@ -10109,9 +10109,9 @@
         <v>39932</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63">
         <v>6674</v>
@@ -10120,16 +10120,16 @@
         <v>424</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63" s="1">
         <v>39954</v>
@@ -10249,9 +10249,9 @@
         <v>39954</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>6862</v>
@@ -10260,16 +10260,16 @@
         <v>626</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" s="1">
         <v>40039</v>
@@ -10389,9 +10389,9 @@
         <v>40039</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65">
         <v>7136</v>
@@ -10400,16 +10400,16 @@
         <v>984</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H65" s="1">
         <v>40169</v>
@@ -10529,9 +10529,9 @@
         <v>40169</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66">
         <v>6274</v>
@@ -10540,16 +10540,16 @@
         <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66" s="1">
         <v>39855</v>
@@ -10669,9 +10669,9 @@
         <v>39855</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>6342</v>
@@ -10680,16 +10680,16 @@
         <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1">
         <v>39870</v>
@@ -10809,9 +10809,9 @@
         <v>39870</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68">
         <v>7106</v>
@@ -10820,16 +10820,16 @@
         <v>1097</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H68" s="1">
         <v>40155</v>
@@ -10949,9 +10949,9 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69">
         <v>7394</v>
@@ -10960,16 +10960,16 @@
         <v>1351</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H69" s="1">
         <v>40282</v>
@@ -11089,9 +11089,9 @@
         <v>40282</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>6064</v>
@@ -11100,16 +11100,16 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E70">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H70" s="1">
         <v>39784</v>
@@ -11229,9 +11229,9 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <v>6074</v>
@@ -11240,16 +11240,16 @@
         <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71" s="1">
         <v>39790</v>
@@ -11369,9 +11369,9 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>6078</v>
@@ -11380,16 +11380,16 @@
         <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="1">
         <v>39791</v>
@@ -11509,9 +11509,9 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>6148</v>
@@ -11520,16 +11520,16 @@
         <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73" s="1">
         <v>39804</v>
@@ -11649,9 +11649,9 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>6270</v>
@@ -11660,16 +11660,16 @@
         <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H74" s="1">
         <v>39855</v>
@@ -11789,9 +11789,9 @@
         <v>39855</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>6360</v>
@@ -11800,16 +11800,16 @@
         <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H75" s="1">
         <v>39875</v>
@@ -11929,9 +11929,9 @@
         <v>39875</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>6400</v>
@@ -11940,16 +11940,16 @@
         <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H76" s="1">
         <v>39881</v>
@@ -12069,9 +12069,9 @@
         <v>39881</v>
       </c>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>6578</v>
@@ -12080,16 +12080,16 @@
         <v>331</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H77" s="1">
         <v>39917</v>
@@ -12209,9 +12209,9 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>6626</v>
@@ -12220,16 +12220,16 @@
         <v>376</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H78" s="1">
         <v>39938</v>
@@ -12349,9 +12349,9 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>6584</v>
@@ -12360,16 +12360,16 @@
         <v>388</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H79" s="1">
         <v>39919</v>
@@ -12489,9 +12489,9 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>6992</v>
@@ -12500,16 +12500,16 @@
         <v>625</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="1">
         <v>40107</v>
@@ -12629,9 +12629,9 @@
         <v>40107</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81">
         <v>6998</v>
@@ -12640,16 +12640,16 @@
         <v>887</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H81" s="1">
         <v>40109</v>
@@ -12769,9 +12769,9 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82">
         <v>7026</v>
@@ -12780,16 +12780,16 @@
         <v>926</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E82">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H82" s="1">
         <v>40119</v>
@@ -12909,9 +12909,9 @@
         <v>40119</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83">
         <v>7048</v>
@@ -12920,16 +12920,16 @@
         <v>1046</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E83">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H83" s="1">
         <v>40123</v>
@@ -13049,9 +13049,9 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>7264</v>
@@ -13060,16 +13060,16 @@
         <v>1190</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H84" s="1">
         <v>40228</v>
@@ -13189,9 +13189,9 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85">
         <v>7020</v>
@@ -13200,16 +13200,16 @@
         <v>985</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E85">
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85" s="1">
         <v>40116</v>
@@ -13329,9 +13329,9 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86">
         <v>7122</v>
@@ -13340,16 +13340,16 @@
         <v>1063</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E86">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H86" s="1">
         <v>40161</v>
@@ -13472,9 +13472,9 @@
         <v>41543</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87">
         <v>6208</v>
@@ -13483,16 +13483,16 @@
         <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H87" s="1">
         <v>39832</v>
@@ -13612,9 +13612,9 @@
         <v>39832</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88">
         <v>6350</v>
@@ -13623,16 +13623,16 @@
         <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E88">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88" s="1">
         <v>39871</v>
@@ -13752,9 +13752,9 @@
         <v>39871</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89">
         <v>6276</v>
@@ -13763,16 +13763,16 @@
         <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E89">
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H89" s="1">
         <v>39855</v>
@@ -13892,9 +13892,9 @@
         <v>39855</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <v>6326</v>
@@ -13903,16 +13903,16 @@
         <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H90" s="1">
         <v>39868</v>
@@ -14032,9 +14032,9 @@
         <v>39868</v>
       </c>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91">
         <v>6564</v>
@@ -14043,16 +14043,16 @@
         <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H91" s="1">
         <v>39916</v>
@@ -14172,9 +14172,9 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92">
         <v>6598</v>
@@ -14183,16 +14183,16 @@
         <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H92" s="1">
         <v>39926</v>
@@ -14312,9 +14312,9 @@
         <v>39926</v>
       </c>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B93">
         <v>6670</v>
@@ -14323,16 +14323,16 @@
         <v>403</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93">
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93" s="1">
         <v>39952</v>
@@ -14452,9 +14452,9 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94">
         <v>6716</v>
@@ -14463,16 +14463,16 @@
         <v>408</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E94">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H94" s="1">
         <v>39973</v>
@@ -14592,9 +14592,9 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>6806</v>
@@ -14603,16 +14603,16 @@
         <v>644</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E95">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H95" s="1">
         <v>40011</v>
@@ -14732,9 +14732,9 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B96">
         <v>6920</v>
@@ -14743,16 +14743,16 @@
         <v>835</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96" s="1">
         <v>40065</v>
@@ -14872,9 +14872,9 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97">
         <v>7088</v>
@@ -14883,16 +14883,16 @@
         <v>1045</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H97" s="1">
         <v>40142</v>
@@ -15012,9 +15012,9 @@
         <v>40142</v>
       </c>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98">
         <v>7480</v>
@@ -15023,16 +15023,16 @@
         <v>1387</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H98" s="1">
         <v>40338</v>
@@ -15152,9 +15152,9 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99">
         <v>7052</v>
@@ -15163,16 +15163,16 @@
         <v>824</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E99">
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H99" s="1">
         <v>40126</v>
@@ -15292,9 +15292,9 @@
         <v>40126</v>
       </c>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>7082</v>
@@ -15303,16 +15303,16 @@
         <v>843</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H100" s="1">
         <v>40140</v>
@@ -15435,9 +15435,9 @@
         <v>40191</v>
       </c>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101">
         <v>7018</v>
@@ -15446,16 +15446,16 @@
         <v>845</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H101" s="1">
         <v>40115</v>
@@ -15575,9 +15575,9 @@
         <v>40115</v>
       </c>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102">
         <v>7100</v>
@@ -15586,16 +15586,16 @@
         <v>878</v>
       </c>
       <c r="D102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H102" s="1">
         <v>40149</v>
@@ -15715,9 +15715,9 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103">
         <v>7152</v>
@@ -15726,16 +15726,16 @@
         <v>914</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103">
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H103" s="1">
         <v>40185</v>
@@ -15855,9 +15855,9 @@
         <v>40185</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>7170</v>
@@ -15866,16 +15866,16 @@
         <v>1218</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104">
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104" s="1">
         <v>40198</v>
@@ -15995,9 +15995,9 @@
         <v>40198</v>
       </c>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105">
         <v>7406</v>
@@ -16006,16 +16006,16 @@
         <v>1318</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E105">
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H105" s="1">
         <v>40290</v>
@@ -16135,9 +16135,9 @@
         <v>40290</v>
       </c>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B106">
         <v>6828</v>
@@ -16146,16 +16146,16 @@
         <v>618</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E106">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H106" s="1">
         <v>40022</v>
@@ -16275,9 +16275,9 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B107">
         <v>7034</v>
@@ -16286,16 +16286,16 @@
         <v>830</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E107">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H107" s="1">
         <v>40121</v>
@@ -16415,9 +16415,9 @@
         <v>40121</v>
       </c>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>7036</v>
@@ -16426,16 +16426,16 @@
         <v>867</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E108">
         <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H108" s="1">
         <v>40121</v>
@@ -16555,9 +16555,9 @@
         <v>40121</v>
       </c>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B109">
         <v>7120</v>
@@ -16566,16 +16566,16 @@
         <v>1066</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E109">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H109" s="1">
         <v>40158</v>
@@ -16695,9 +16695,9 @@
         <v>40158</v>
       </c>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110">
         <v>6364</v>
@@ -16706,16 +16706,16 @@
         <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E110">
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H110" s="1">
         <v>39876</v>
@@ -16835,9 +16835,9 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111">
         <v>6798</v>
@@ -16846,16 +16846,16 @@
         <v>479</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E111">
         <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H111" s="1">
         <v>40009</v>
@@ -16975,9 +16975,9 @@
         <v>40009</v>
       </c>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112">
         <v>6836</v>
@@ -16986,16 +16986,16 @@
         <v>677</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E112">
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112" s="1">
         <v>40024</v>
@@ -17115,9 +17115,9 @@
         <v>40024</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113">
         <v>7160</v>
@@ -17126,16 +17126,16 @@
         <v>1169</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E113">
         <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H113" s="1">
         <v>40191</v>
@@ -17255,9 +17255,9 @@
         <v>40191</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114">
         <v>6734</v>
@@ -17266,16 +17266,16 @@
         <v>514</v>
       </c>
       <c r="D114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E114">
         <v>52</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H114" s="1">
         <v>39982</v>
@@ -17395,9 +17395,9 @@
         <v>39982</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115">
         <v>6906</v>
@@ -17406,16 +17406,16 @@
         <v>734</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E115">
         <v>52</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H115" s="1">
         <v>40053</v>
@@ -17535,9 +17535,9 @@
         <v>40053</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116">
         <v>6904</v>
@@ -17546,16 +17546,16 @@
         <v>741</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E116">
         <v>52</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H116" s="1">
         <v>40052</v>
@@ -17675,9 +17675,9 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117">
         <v>7032</v>
@@ -17686,16 +17686,16 @@
         <v>906</v>
       </c>
       <c r="D117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E117">
         <v>52</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H117" s="1">
         <v>40120</v>
@@ -17815,9 +17815,9 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118">
         <v>7022</v>
@@ -17826,16 +17826,16 @@
         <v>920</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E118">
         <v>52</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H118" s="1">
         <v>40116</v>
@@ -17955,9 +17955,9 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119">
         <v>7024</v>
@@ -17966,16 +17966,16 @@
         <v>922</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E119">
         <v>52</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H119" s="1">
         <v>40116</v>
@@ -18095,9 +18095,9 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120">
         <v>7030</v>
@@ -18106,16 +18106,16 @@
         <v>923</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E120">
         <v>52</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120" s="1">
         <v>40120</v>
@@ -18235,9 +18235,9 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121">
         <v>7110</v>
@@ -18246,16 +18246,16 @@
         <v>1016</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E121">
         <v>52</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H121" s="1">
         <v>40155</v>
@@ -18375,9 +18375,9 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122">
         <v>7108</v>
@@ -18386,16 +18386,16 @@
         <v>1098</v>
       </c>
       <c r="D122" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E122">
         <v>52</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H122" s="1">
         <v>40155</v>
@@ -18515,9 +18515,9 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123">
         <v>7138</v>
@@ -18526,16 +18526,16 @@
         <v>1116</v>
       </c>
       <c r="D123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E123">
         <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H123" s="1">
         <v>40169</v>
@@ -18658,9 +18658,9 @@
         <v>41774</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124">
         <v>6756</v>
@@ -18669,16 +18669,16 @@
         <v>156</v>
       </c>
       <c r="D124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E124">
         <v>6</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H124" s="1">
         <v>39994</v>
@@ -18798,9 +18798,9 @@
         <v>39994</v>
       </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125">
         <v>6718</v>
@@ -18809,16 +18809,16 @@
         <v>204</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E125">
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H125" s="1">
         <v>39975</v>
@@ -18938,9 +18938,9 @@
         <v>39975</v>
       </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126">
         <v>6652</v>
@@ -18949,16 +18949,16 @@
         <v>292</v>
       </c>
       <c r="D126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E126">
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H126" s="1">
         <v>39948</v>
@@ -19078,9 +19078,9 @@
         <v>39948</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>7208</v>
@@ -19089,16 +19089,16 @@
         <v>555</v>
       </c>
       <c r="D127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E127">
         <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H127" s="1">
         <v>40213</v>
@@ -19218,9 +19218,9 @@
         <v>40213</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128">
         <v>7172</v>
@@ -19229,16 +19229,16 @@
         <v>997</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E128">
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128" s="1">
         <v>40198</v>
@@ -19358,9 +19358,9 @@
         <v>40198</v>
       </c>
     </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B129">
         <v>6892</v>
@@ -19369,16 +19369,16 @@
         <v>672</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E129">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H129" s="1">
         <v>40050</v>
@@ -19498,9 +19498,9 @@
         <v>40050</v>
       </c>
     </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130">
         <v>6902</v>
@@ -19509,16 +19509,16 @@
         <v>673</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E130">
         <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H130" s="1">
         <v>40051</v>
@@ -19638,9 +19638,9 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B131">
         <v>7028</v>
@@ -19649,16 +19649,16 @@
         <v>813</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E131">
         <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H131" s="1">
         <v>40119</v>
@@ -19778,9 +19778,9 @@
         <v>40119</v>
       </c>
     </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B132">
         <v>7092</v>
@@ -19789,16 +19789,16 @@
         <v>869</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E132">
         <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H132" s="1">
         <v>40142</v>
@@ -19918,9 +19918,9 @@
         <v>40142</v>
       </c>
     </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133">
         <v>7090</v>
@@ -19929,16 +19929,16 @@
         <v>945</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E133">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H133" s="1">
         <v>40142</v>
@@ -20058,9 +20058,9 @@
         <v>40142</v>
       </c>
     </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B134">
         <v>6624</v>
@@ -20069,16 +20069,16 @@
         <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E134">
         <v>18</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H134" s="1">
         <v>39937</v>
@@ -20198,9 +20198,9 @@
         <v>39937</v>
       </c>
     </row>
-    <row r="135" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B135">
         <v>6768</v>
@@ -20209,16 +20209,16 @@
         <v>303</v>
       </c>
       <c r="D135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E135">
         <v>18</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H135" s="1">
         <v>40000</v>
@@ -20338,9 +20338,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136">
         <v>7044</v>
@@ -20349,16 +20349,16 @@
         <v>377</v>
       </c>
       <c r="D136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E136">
         <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136" s="1">
         <v>40123</v>
@@ -20478,9 +20478,9 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="137" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B137">
         <v>6772</v>
@@ -20489,16 +20489,16 @@
         <v>454</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E137">
         <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H137" s="1">
         <v>40000</v>
@@ -20618,9 +20618,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B138">
         <v>7078</v>
@@ -20629,16 +20629,16 @@
         <v>501</v>
       </c>
       <c r="D138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E138">
         <v>18</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H138" s="1">
         <v>40140</v>
@@ -20758,9 +20758,9 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139">
         <v>7080</v>
@@ -20769,16 +20769,16 @@
         <v>539</v>
       </c>
       <c r="D139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E139">
         <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H139" s="1">
         <v>40140</v>
@@ -20898,9 +20898,9 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140">
         <v>7530</v>
@@ -20909,16 +20909,16 @@
         <v>588</v>
       </c>
       <c r="D140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E140">
         <v>18</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H140" s="1">
         <v>40399</v>
@@ -21038,9 +21038,9 @@
         <v>40399</v>
       </c>
     </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B141">
         <v>7414</v>
@@ -21049,16 +21049,16 @@
         <v>1078</v>
       </c>
       <c r="D141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E141">
         <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H141" s="1">
         <v>40302</v>
@@ -21178,9 +21178,9 @@
         <v>40302</v>
       </c>
     </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B142">
         <v>6262</v>
@@ -21189,16 +21189,16 @@
         <v>125</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E142">
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H142" s="1">
         <v>39854</v>
@@ -21318,9 +21318,9 @@
         <v>39854</v>
       </c>
     </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B143">
         <v>6604</v>
@@ -21329,16 +21329,16 @@
         <v>262</v>
       </c>
       <c r="D143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E143">
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H143" s="1">
         <v>39927</v>
@@ -21458,9 +21458,9 @@
         <v>39927</v>
       </c>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B144">
         <v>6602</v>
@@ -21469,16 +21469,16 @@
         <v>314</v>
       </c>
       <c r="D144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E144">
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="1">
         <v>39927</v>
@@ -21598,9 +21598,9 @@
         <v>39927</v>
       </c>
     </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145">
         <v>6840</v>
@@ -21609,16 +21609,16 @@
         <v>679</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E145">
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H145" s="1">
         <v>40028</v>
@@ -21738,9 +21738,9 @@
         <v>40028</v>
       </c>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B146">
         <v>7130</v>
@@ -21749,16 +21749,16 @@
         <v>1010</v>
       </c>
       <c r="D146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E146">
         <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H146" s="1">
         <v>40165</v>
@@ -21878,9 +21878,9 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147">
         <v>7572</v>
@@ -21889,16 +21889,16 @@
         <v>1418</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E147">
         <v>20</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H147" s="1">
         <v>40441</v>
@@ -22018,9 +22018,9 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148">
         <v>7650</v>
@@ -22029,16 +22029,16 @@
         <v>1425</v>
       </c>
       <c r="D148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E148">
         <v>20</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H148" s="1">
         <v>40599</v>
@@ -22161,9 +22161,9 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149">
         <v>7484</v>
@@ -22172,16 +22172,16 @@
         <v>1072</v>
       </c>
       <c r="D149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E149">
         <v>56</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H149" s="1">
         <v>40340</v>
@@ -22301,9 +22301,9 @@
         <v>40340</v>
       </c>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B150">
         <v>7482</v>
@@ -22312,16 +22312,16 @@
         <v>1123</v>
       </c>
       <c r="D150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E150">
         <v>56</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H150" s="1">
         <v>40340</v>
@@ -22441,9 +22441,9 @@
         <v>40340</v>
       </c>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B151">
         <v>7596</v>
@@ -22452,16 +22452,16 @@
         <v>1131</v>
       </c>
       <c r="D151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E151">
         <v>56</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H151" s="1">
         <v>40479</v>
@@ -22584,9 +22584,9 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B152">
         <v>7564</v>
@@ -22595,16 +22595,16 @@
         <v>671</v>
       </c>
       <c r="D152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E152">
         <v>57</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152" s="1">
         <v>40428</v>
@@ -22724,9 +22724,9 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B153">
         <v>7562</v>
@@ -22735,16 +22735,16 @@
         <v>951</v>
       </c>
       <c r="D153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E153">
         <v>57</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H153" s="1">
         <v>40428</v>
@@ -22864,9 +22864,9 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <v>7648</v>
@@ -22875,16 +22875,16 @@
         <v>952</v>
       </c>
       <c r="D154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E154">
         <v>57</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H154" s="1">
         <v>40584</v>
@@ -23004,9 +23004,9 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155">
         <v>7544</v>
@@ -23015,16 +23015,16 @@
         <v>989</v>
       </c>
       <c r="D155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E155">
         <v>57</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H155" s="1">
         <v>40415</v>
@@ -23144,9 +23144,9 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156">
         <v>7558</v>
@@ -23155,16 +23155,16 @@
         <v>1250</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E156">
         <v>57</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H156" s="1">
         <v>40428</v>
@@ -23284,9 +23284,9 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B157">
         <v>7560</v>
@@ -23295,16 +23295,16 @@
         <v>1251</v>
       </c>
       <c r="D157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E157">
         <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H157" s="1">
         <v>40428</v>
@@ -23424,9 +23424,9 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B158">
         <v>7556</v>
@@ -23435,16 +23435,16 @@
         <v>1346</v>
       </c>
       <c r="D158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E158">
         <v>57</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H158" s="1">
         <v>40428</v>
@@ -23564,9 +23564,9 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B159">
         <v>7568</v>
@@ -23575,16 +23575,16 @@
         <v>1352</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E159">
         <v>57</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H159" s="1">
         <v>40431</v>
@@ -23704,9 +23704,9 @@
         <v>40431</v>
       </c>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B160">
         <v>7084</v>
@@ -23715,16 +23715,16 @@
         <v>389</v>
       </c>
       <c r="D160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E160">
         <v>58</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H160" s="1">
         <v>40141</v>
@@ -23844,9 +23844,9 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B161">
         <v>7094</v>
@@ -23855,16 +23855,16 @@
         <v>919</v>
       </c>
       <c r="D161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161">
         <v>58</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H161" s="1">
         <v>40143</v>
@@ -23921,7 +23921,7 @@
         <v>8</v>
       </c>
       <c r="AB161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE161">
         <v>-4</v>
@@ -23984,9 +23984,9 @@
         <v>40143</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B162">
         <v>7586</v>
@@ -23995,16 +23995,16 @@
         <v>934</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E162">
         <v>62</v>
       </c>
       <c r="F162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H162" s="1">
         <v>40472</v>
@@ -24124,9 +24124,9 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B163">
         <v>7692</v>
@@ -24135,16 +24135,16 @@
         <v>1269</v>
       </c>
       <c r="D163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E163">
         <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H163" s="1">
         <v>40674</v>
@@ -24201,7 +24201,7 @@
         <v>8</v>
       </c>
       <c r="AB163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE163">
         <v>-4</v>
@@ -24264,9 +24264,9 @@
         <v>40674</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B164">
         <v>6130</v>
@@ -24275,16 +24275,16 @@
         <v>56</v>
       </c>
       <c r="D164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E164">
         <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H164" s="1">
         <v>39799</v>
@@ -24404,9 +24404,9 @@
         <v>39799</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B165">
         <v>6132</v>
@@ -24415,16 +24415,16 @@
         <v>59</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165">
         <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H165" s="1">
         <v>39799</v>
@@ -24544,9 +24544,9 @@
         <v>39799</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B166">
         <v>6878</v>
@@ -24555,16 +24555,16 @@
         <v>257</v>
       </c>
       <c r="D166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E166">
         <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H166" s="1">
         <v>40044</v>
@@ -24684,9 +24684,9 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B167">
         <v>7216</v>
@@ -24695,16 +24695,16 @@
         <v>127</v>
       </c>
       <c r="D167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E167">
         <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H167" s="1">
         <v>40218</v>
@@ -24824,9 +24824,9 @@
         <v>40218</v>
       </c>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B168">
         <v>7218</v>
@@ -24835,16 +24835,16 @@
         <v>210</v>
       </c>
       <c r="D168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E168">
         <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H168" s="1">
         <v>40218</v>
@@ -24967,9 +24967,9 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B169">
         <v>7220</v>
@@ -24978,16 +24978,16 @@
         <v>473</v>
       </c>
       <c r="D169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E169">
         <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" s="1">
         <v>40218</v>
@@ -25107,9 +25107,9 @@
         <v>40218</v>
       </c>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B170">
         <v>7460</v>
@@ -25118,16 +25118,16 @@
         <v>802</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E170">
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H170" s="1">
         <v>40326</v>
@@ -25247,9 +25247,9 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B171">
         <v>7068</v>
@@ -25258,16 +25258,16 @@
         <v>315</v>
       </c>
       <c r="D171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E171">
         <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H171" s="1">
         <v>40134</v>
@@ -25387,9 +25387,9 @@
         <v>40134</v>
       </c>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B172">
         <v>7438</v>
@@ -25398,16 +25398,16 @@
         <v>1380</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E172">
         <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H172" s="1">
         <v>40313</v>
@@ -25527,9 +25527,9 @@
         <v>40313</v>
       </c>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B173">
         <v>6432</v>
@@ -25538,16 +25538,16 @@
         <v>89</v>
       </c>
       <c r="D173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E173">
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H173" s="1">
         <v>39883</v>
@@ -25667,9 +25667,9 @@
         <v>39883</v>
       </c>
     </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B174">
         <v>6692</v>
@@ -25678,16 +25678,16 @@
         <v>386</v>
       </c>
       <c r="D174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E174">
         <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H174" s="1">
         <v>39965</v>
@@ -25807,9 +25807,9 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B175">
         <v>7284</v>
@@ -25818,16 +25818,16 @@
         <v>746</v>
       </c>
       <c r="D175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E175">
         <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H175" s="1">
         <v>40233</v>
@@ -25947,9 +25947,9 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B176">
         <v>7314</v>
@@ -25958,16 +25958,16 @@
         <v>1256</v>
       </c>
       <c r="D176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E176">
         <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H176" s="1">
         <v>40240</v>
@@ -26090,9 +26090,9 @@
         <v>40240</v>
       </c>
     </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177">
         <v>6512</v>
@@ -26101,16 +26101,16 @@
         <v>160</v>
       </c>
       <c r="D177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E177">
         <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177" s="1">
         <v>39896</v>
@@ -26230,9 +26230,9 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B178">
         <v>6362</v>
@@ -26241,16 +26241,16 @@
         <v>171</v>
       </c>
       <c r="D178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E178">
         <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H178" s="1">
         <v>39875</v>
@@ -26370,9 +26370,9 @@
         <v>39875</v>
       </c>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B179">
         <v>6524</v>
@@ -26381,16 +26381,16 @@
         <v>172</v>
       </c>
       <c r="D179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E179">
         <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H179" s="1">
         <v>39899</v>
@@ -26510,9 +26510,9 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B180">
         <v>6596</v>
@@ -26521,16 +26521,16 @@
         <v>269</v>
       </c>
       <c r="D180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E180">
         <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H180" s="1">
         <v>39923</v>
@@ -26650,9 +26650,9 @@
         <v>39923</v>
       </c>
     </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B181">
         <v>6834</v>
@@ -26661,16 +26661,16 @@
         <v>667</v>
       </c>
       <c r="D181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E181">
         <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H181" s="1">
         <v>40024</v>
@@ -26790,9 +26790,9 @@
         <v>40024</v>
       </c>
     </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B182">
         <v>6990</v>
@@ -26801,16 +26801,16 @@
         <v>896</v>
       </c>
       <c r="D182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E182">
         <v>44</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H182" s="1">
         <v>40106</v>
@@ -26930,9 +26930,9 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="183" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B183">
         <v>6110</v>
@@ -26941,16 +26941,16 @@
         <v>51</v>
       </c>
       <c r="D183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E183">
         <v>45</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H183" s="1">
         <v>39797</v>
@@ -27070,9 +27070,9 @@
         <v>39797</v>
       </c>
     </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B184">
         <v>6562</v>
@@ -27081,16 +27081,16 @@
         <v>291</v>
       </c>
       <c r="D184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E184">
         <v>45</v>
       </c>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H184" s="1">
         <v>39913</v>
@@ -27210,9 +27210,9 @@
         <v>39913</v>
       </c>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B185">
         <v>6620</v>
@@ -27221,16 +27221,16 @@
         <v>352</v>
       </c>
       <c r="D185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E185">
         <v>45</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H185" s="1">
         <v>39933</v>
@@ -27350,9 +27350,9 @@
         <v>39933</v>
       </c>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B186">
         <v>7058</v>
@@ -27361,16 +27361,16 @@
         <v>1034</v>
       </c>
       <c r="D186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E186">
         <v>45</v>
       </c>
       <c r="F186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H186" s="1">
         <v>40128</v>
@@ -27490,9 +27490,9 @@
         <v>40128</v>
       </c>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B187">
         <v>6216</v>
@@ -27501,16 +27501,16 @@
         <v>69</v>
       </c>
       <c r="D187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E187">
         <v>4</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H187" s="1">
         <v>39834</v>
@@ -27630,9 +27630,9 @@
         <v>39834</v>
       </c>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B188">
         <v>6640</v>
@@ -27641,16 +27641,16 @@
         <v>296</v>
       </c>
       <c r="D188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E188">
         <v>4</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H188" s="1">
         <v>39946</v>
@@ -27707,7 +27707,7 @@
         <v>8</v>
       </c>
       <c r="AB188" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE188">
         <v>-4</v>
@@ -27770,9 +27770,9 @@
         <v>39946</v>
       </c>
     </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B189">
         <v>7380</v>
@@ -27781,16 +27781,16 @@
         <v>1226</v>
       </c>
       <c r="D189" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E189">
         <v>4</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H189" s="1">
         <v>40274</v>
@@ -27871,7 +27871,7 @@
         <v>1</v>
       </c>
       <c r="AL189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM189">
         <v>-4</v>
@@ -27910,9 +27910,9 @@
         <v>40274</v>
       </c>
     </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B190">
         <v>7104</v>
@@ -27921,16 +27921,16 @@
         <v>1286</v>
       </c>
       <c r="D190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E190">
         <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H190" s="1">
         <v>40155</v>
@@ -28050,9 +28050,9 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B191">
         <v>6426</v>
@@ -28061,16 +28061,16 @@
         <v>166</v>
       </c>
       <c r="D191" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E191">
         <v>87</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H191" s="1">
         <v>39882</v>
@@ -28190,9 +28190,9 @@
         <v>39882</v>
       </c>
     </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B192">
         <v>6416</v>
@@ -28201,16 +28201,16 @@
         <v>173</v>
       </c>
       <c r="D192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E192">
         <v>87</v>
       </c>
       <c r="F192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H192" s="1">
         <v>39882</v>
@@ -28330,9 +28330,9 @@
         <v>39882</v>
       </c>
     </row>
-    <row r="193" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193">
         <v>6810</v>
@@ -28341,16 +28341,16 @@
         <v>378</v>
       </c>
       <c r="D193" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E193">
         <v>87</v>
       </c>
       <c r="F193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H193" s="1">
         <v>40014</v>
@@ -28470,9 +28470,9 @@
         <v>40014</v>
       </c>
     </row>
-    <row r="194" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B194">
         <v>6850</v>
@@ -28481,16 +28481,16 @@
         <v>416</v>
       </c>
       <c r="D194" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E194">
         <v>87</v>
       </c>
       <c r="F194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H194" s="1">
         <v>40030</v>
@@ -28610,9 +28610,9 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="195" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B195">
         <v>7198</v>
@@ -28621,16 +28621,16 @@
         <v>1106</v>
       </c>
       <c r="D195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E195">
         <v>87</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H195" s="1">
         <v>40208</v>
@@ -28750,9 +28750,9 @@
         <v>40208</v>
       </c>
     </row>
-    <row r="196" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B196">
         <v>7200</v>
@@ -28761,16 +28761,16 @@
         <v>1118</v>
       </c>
       <c r="D196" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E196">
         <v>87</v>
       </c>
       <c r="F196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H196" s="1">
         <v>40208</v>
@@ -28890,9 +28890,9 @@
         <v>40208</v>
       </c>
     </row>
-    <row r="197" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B197">
         <v>6668</v>
@@ -28901,16 +28901,16 @@
         <v>361</v>
       </c>
       <c r="D197" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E197">
         <v>5</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H197" s="1">
         <v>39952</v>
@@ -29030,9 +29030,9 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="198" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B198">
         <v>6726</v>
@@ -29041,16 +29041,16 @@
         <v>382</v>
       </c>
       <c r="D198" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E198">
         <v>5</v>
       </c>
       <c r="F198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H198" s="1">
         <v>39979</v>
@@ -29170,9 +29170,9 @@
         <v>39979</v>
       </c>
     </row>
-    <row r="199" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B199">
         <v>6976</v>
@@ -29181,16 +29181,16 @@
         <v>657</v>
       </c>
       <c r="D199" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E199">
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H199" s="1">
         <v>40079</v>
@@ -29310,9 +29310,9 @@
         <v>40079</v>
       </c>
     </row>
-    <row r="200" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B200">
         <v>6918</v>
@@ -29321,16 +29321,16 @@
         <v>752</v>
       </c>
       <c r="D200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E200">
         <v>5</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H200" s="1">
         <v>40064</v>
@@ -29450,9 +29450,9 @@
         <v>40064</v>
       </c>
     </row>
-    <row r="201" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B201">
         <v>7054</v>
@@ -29461,16 +29461,16 @@
         <v>834</v>
       </c>
       <c r="D201" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E201">
         <v>5</v>
       </c>
       <c r="F201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H201" s="1">
         <v>40127</v>
@@ -29590,9 +29590,9 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="202" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B202">
         <v>7244</v>
@@ -29601,16 +29601,16 @@
         <v>1232</v>
       </c>
       <c r="D202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E202">
         <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H202" s="1">
         <v>40226</v>
@@ -29730,9 +29730,9 @@
         <v>40226</v>
       </c>
     </row>
-    <row r="203" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B203">
         <v>7330</v>
@@ -29741,16 +29741,16 @@
         <v>1243</v>
       </c>
       <c r="D203" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E203">
         <v>5</v>
       </c>
       <c r="F203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H203" s="1">
         <v>40246</v>
@@ -29870,9 +29870,9 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="204" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B204">
         <v>7228</v>
@@ -29881,16 +29881,16 @@
         <v>1249</v>
       </c>
       <c r="D204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E204">
         <v>5</v>
       </c>
       <c r="F204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H204" s="1">
         <v>40218</v>
@@ -30010,9 +30010,9 @@
         <v>40218</v>
       </c>
     </row>
-    <row r="205" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <v>7346</v>
@@ -30021,16 +30021,16 @@
         <v>1271</v>
       </c>
       <c r="D205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E205">
         <v>5</v>
       </c>
       <c r="F205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H205" s="1">
         <v>40253</v>
@@ -30150,9 +30150,9 @@
         <v>40253</v>
       </c>
     </row>
-    <row r="206" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B206">
         <v>6412</v>
@@ -30161,16 +30161,16 @@
         <v>72</v>
       </c>
       <c r="D206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E206">
         <v>94</v>
       </c>
       <c r="F206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H206" s="1">
         <v>39882</v>
@@ -30290,9 +30290,9 @@
         <v>39882</v>
       </c>
     </row>
-    <row r="207" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B207">
         <v>6454</v>
@@ -30301,16 +30301,16 @@
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E207">
         <v>94</v>
       </c>
       <c r="F207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H207" s="1">
         <v>39888</v>
@@ -30430,9 +30430,9 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="208" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B208">
         <v>6424</v>
@@ -30441,16 +30441,16 @@
         <v>108</v>
       </c>
       <c r="D208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E208">
         <v>94</v>
       </c>
       <c r="F208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H208" s="1">
         <v>39882</v>
@@ -30570,9 +30570,9 @@
         <v>39882</v>
       </c>
     </row>
-    <row r="209" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B209">
         <v>6460</v>
@@ -30581,16 +30581,16 @@
         <v>113</v>
       </c>
       <c r="D209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E209">
         <v>94</v>
       </c>
       <c r="F209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H209" s="1">
         <v>39888</v>
@@ -30710,9 +30710,9 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="210" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B210">
         <v>6924</v>
@@ -30721,16 +30721,16 @@
         <v>298</v>
       </c>
       <c r="D210" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E210">
         <v>94</v>
       </c>
       <c r="F210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H210" s="1">
         <v>40066</v>
@@ -30850,9 +30850,9 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="211" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B211">
         <v>7622</v>
@@ -30861,16 +30861,16 @@
         <v>1300</v>
       </c>
       <c r="D211" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E211">
         <v>94</v>
       </c>
       <c r="F211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H211" s="1">
         <v>40519</v>
@@ -30990,9 +30990,9 @@
         <v>40519</v>
       </c>
     </row>
-    <row r="212" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B212">
         <v>6730</v>
@@ -31001,16 +31001,16 @@
         <v>605</v>
       </c>
       <c r="D212" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E212">
         <v>113</v>
       </c>
       <c r="F212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H212" s="1">
         <v>39981</v>
@@ -31130,9 +31130,9 @@
         <v>39981</v>
       </c>
     </row>
-    <row r="213" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B213">
         <v>6832</v>
@@ -31141,16 +31141,16 @@
         <v>680</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E213">
         <v>113</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H213" s="1">
         <v>40024</v>
@@ -31270,9 +31270,9 @@
         <v>40024</v>
       </c>
     </row>
-    <row r="214" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B214">
         <v>6824</v>
@@ -31281,16 +31281,16 @@
         <v>708</v>
       </c>
       <c r="D214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E214">
         <v>113</v>
       </c>
       <c r="F214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H214" s="1">
         <v>40021</v>
@@ -31410,9 +31410,9 @@
         <v>40021</v>
       </c>
     </row>
-    <row r="215" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B215">
         <v>6874</v>
@@ -31421,16 +31421,16 @@
         <v>709</v>
       </c>
       <c r="D215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E215">
         <v>113</v>
       </c>
       <c r="F215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H215" s="1">
         <v>40044</v>
@@ -31550,9 +31550,9 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="216" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B216">
         <v>7118</v>
@@ -31561,16 +31561,16 @@
         <v>1077</v>
       </c>
       <c r="D216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E216">
         <v>113</v>
       </c>
       <c r="F216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H216" s="1">
         <v>40158</v>
@@ -31693,9 +31693,9 @@
         <v>40581</v>
       </c>
     </row>
-    <row r="217" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B217">
         <v>7254</v>
@@ -31704,16 +31704,16 @@
         <v>1187</v>
       </c>
       <c r="D217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E217">
         <v>113</v>
       </c>
       <c r="F217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H217" s="1">
         <v>40227</v>
@@ -31833,9 +31833,9 @@
         <v>40227</v>
       </c>
     </row>
-    <row r="218" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B218">
         <v>6370</v>
@@ -31844,16 +31844,16 @@
         <v>112</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E218">
         <v>114</v>
       </c>
       <c r="F218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H218" s="1">
         <v>39876</v>
@@ -31973,9 +31973,9 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="219" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B219">
         <v>6526</v>
@@ -31984,16 +31984,16 @@
         <v>259</v>
       </c>
       <c r="D219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E219">
         <v>114</v>
       </c>
       <c r="F219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H219" s="1">
         <v>39903</v>
@@ -32113,9 +32113,9 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="220" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B220">
         <v>6644</v>
@@ -32124,16 +32124,16 @@
         <v>260</v>
       </c>
       <c r="D220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E220">
         <v>114</v>
       </c>
       <c r="F220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H220" s="1">
         <v>39946</v>
@@ -32253,9 +32253,9 @@
         <v>39946</v>
       </c>
     </row>
-    <row r="221" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B221">
         <v>6762</v>
@@ -32264,16 +32264,16 @@
         <v>622</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E221">
         <v>114</v>
       </c>
       <c r="F221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H221" s="1">
         <v>39997</v>
@@ -32393,9 +32393,9 @@
         <v>39997</v>
       </c>
     </row>
-    <row r="222" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B222">
         <v>6866</v>
@@ -32404,16 +32404,16 @@
         <v>684</v>
       </c>
       <c r="D222" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E222">
         <v>114</v>
       </c>
       <c r="F222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H222" s="1">
         <v>40042</v>
@@ -32533,9 +32533,9 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="223" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B223">
         <v>7070</v>
@@ -32544,16 +32544,16 @@
         <v>925</v>
       </c>
       <c r="D223" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E223">
         <v>114</v>
       </c>
       <c r="F223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H223" s="1">
         <v>40134</v>
@@ -32673,9 +32673,9 @@
         <v>40134</v>
       </c>
     </row>
-    <row r="224" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B224">
         <v>7134</v>
@@ -32684,16 +32684,16 @@
         <v>1032</v>
       </c>
       <c r="D224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E224">
         <v>114</v>
       </c>
       <c r="F224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H224" s="1">
         <v>40168</v>
@@ -32813,9 +32813,9 @@
         <v>40168</v>
       </c>
     </row>
-    <row r="225" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B225">
         <v>6402</v>
@@ -32824,16 +32824,16 @@
         <v>135</v>
       </c>
       <c r="D225" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E225">
         <v>115</v>
       </c>
       <c r="F225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H225" s="1">
         <v>39881</v>
@@ -32953,9 +32953,9 @@
         <v>39881</v>
       </c>
     </row>
-    <row r="226" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B226">
         <v>7060</v>
@@ -32964,16 +32964,16 @@
         <v>200</v>
       </c>
       <c r="D226" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E226">
         <v>115</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H226" s="1">
         <v>40129</v>
@@ -33093,9 +33093,9 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="227" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B227">
         <v>7688</v>
@@ -33104,16 +33104,16 @@
         <v>225</v>
       </c>
       <c r="D227" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E227">
         <v>115</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H227" s="1">
         <v>40654</v>
@@ -33233,9 +33233,9 @@
         <v>40654</v>
       </c>
     </row>
-    <row r="228" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B228">
         <v>6922</v>
@@ -33244,16 +33244,16 @@
         <v>227</v>
       </c>
       <c r="D228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E228">
         <v>115</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H228" s="1">
         <v>40065</v>
@@ -33373,9 +33373,9 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="229" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B229">
         <v>7002</v>
@@ -33384,16 +33384,16 @@
         <v>229</v>
       </c>
       <c r="D229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E229">
         <v>115</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H229" s="1">
         <v>40112</v>
@@ -33516,9 +33516,9 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="230" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B230">
         <v>7540</v>
@@ -33527,16 +33527,16 @@
         <v>230</v>
       </c>
       <c r="D230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E230">
         <v>115</v>
       </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H230" s="1">
         <v>40406</v>
@@ -33656,9 +33656,9 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="231" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B231">
         <v>7004</v>
@@ -33667,16 +33667,16 @@
         <v>272</v>
       </c>
       <c r="D231" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E231">
         <v>115</v>
       </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H231" s="1">
         <v>40112</v>
@@ -33796,9 +33796,9 @@
         <v>40112</v>
       </c>
     </row>
-    <row r="232" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B232">
         <v>7006</v>
@@ -33807,16 +33807,16 @@
         <v>545</v>
       </c>
       <c r="D232" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E232">
         <v>115</v>
       </c>
       <c r="F232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H232" s="1">
         <v>40113</v>
@@ -33936,9 +33936,9 @@
         <v>40113</v>
       </c>
     </row>
-    <row r="233" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B233">
         <v>7722</v>
@@ -33947,16 +33947,16 @@
         <v>863</v>
       </c>
       <c r="D233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E233">
         <v>115</v>
       </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H233" s="1">
         <v>40920</v>
@@ -34076,9 +34076,9 @@
         <v>40920</v>
       </c>
     </row>
-    <row r="234" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B234">
         <v>7150</v>
@@ -34087,16 +34087,16 @@
         <v>1043</v>
       </c>
       <c r="D234" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E234">
         <v>115</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H234" s="1">
         <v>40184</v>
@@ -34219,9 +34219,9 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="235" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B235">
         <v>6946</v>
@@ -34230,16 +34230,16 @@
         <v>778</v>
       </c>
       <c r="D235" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E235">
         <v>116</v>
       </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H235" s="1">
         <v>40071</v>
@@ -34359,9 +34359,9 @@
         <v>40071</v>
       </c>
     </row>
-    <row r="236" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B236">
         <v>7318</v>
@@ -34370,16 +34370,16 @@
         <v>1246</v>
       </c>
       <c r="D236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E236">
         <v>116</v>
       </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H236" s="1">
         <v>40241</v>
@@ -34499,9 +34499,9 @@
         <v>40241</v>
       </c>
     </row>
-    <row r="237" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B237">
         <v>6790</v>
@@ -34510,16 +34510,16 @@
         <v>232</v>
       </c>
       <c r="D237" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E237">
         <v>117</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H237" s="1">
         <v>40007</v>
@@ -34639,9 +34639,9 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="238" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B238">
         <v>6630</v>
@@ -34650,16 +34650,16 @@
         <v>285</v>
       </c>
       <c r="D238" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E238">
         <v>117</v>
       </c>
       <c r="F238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H238" s="1">
         <v>39939</v>
@@ -34779,9 +34779,9 @@
         <v>39939</v>
       </c>
     </row>
-    <row r="239" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B239">
         <v>6748</v>
@@ -34790,16 +34790,16 @@
         <v>289</v>
       </c>
       <c r="D239" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E239">
         <v>117</v>
       </c>
       <c r="F239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H239" s="1">
         <v>39989</v>
@@ -34919,9 +34919,9 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="240" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B240">
         <v>7188</v>
@@ -34930,16 +34930,16 @@
         <v>505</v>
       </c>
       <c r="D240" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E240">
         <v>117</v>
       </c>
       <c r="F240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H240" s="1">
         <v>40206</v>
@@ -35059,9 +35059,9 @@
         <v>40206</v>
       </c>
     </row>
-    <row r="241" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B241">
         <v>7166</v>
@@ -35070,16 +35070,16 @@
         <v>886</v>
       </c>
       <c r="D241" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E241">
         <v>117</v>
       </c>
       <c r="F241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H241" s="1">
         <v>40197</v>
@@ -35199,9 +35199,9 @@
         <v>40197</v>
       </c>
     </row>
-    <row r="242" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B242">
         <v>7182</v>
@@ -35210,16 +35210,16 @@
         <v>969</v>
       </c>
       <c r="D242" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E242">
         <v>117</v>
       </c>
       <c r="F242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H242" s="1">
         <v>40204</v>
@@ -35339,9 +35339,9 @@
         <v>40204</v>
       </c>
     </row>
-    <row r="243" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B243">
         <v>7578</v>
@@ -35350,16 +35350,16 @@
         <v>1200</v>
       </c>
       <c r="D243" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E243">
         <v>117</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H243" s="1">
         <v>40442</v>
@@ -35416,7 +35416,7 @@
         <v>8</v>
       </c>
       <c r="AB243" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE243">
         <v>-4</v>
@@ -35479,9 +35479,9 @@
         <v>40442</v>
       </c>
     </row>
-    <row r="244" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B244">
         <v>6250</v>
@@ -35490,16 +35490,16 @@
         <v>123</v>
       </c>
       <c r="D244" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E244">
         <v>118</v>
       </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H244" s="1">
         <v>39850</v>
@@ -35619,9 +35619,9 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="245" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B245">
         <v>6588</v>
@@ -35630,16 +35630,16 @@
         <v>384</v>
       </c>
       <c r="D245" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E245">
         <v>118</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H245" s="1">
         <v>39920</v>
@@ -35759,9 +35759,9 @@
         <v>39920</v>
       </c>
     </row>
-    <row r="246" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B246">
         <v>6650</v>
@@ -35770,16 +35770,16 @@
         <v>441</v>
       </c>
       <c r="D246" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E246">
         <v>118</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H246" s="1">
         <v>39947</v>
@@ -35899,9 +35899,9 @@
         <v>39947</v>
       </c>
     </row>
-    <row r="247" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B247">
         <v>6712</v>
@@ -35910,16 +35910,16 @@
         <v>86</v>
       </c>
       <c r="D247" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E247">
         <v>123</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H247" s="1">
         <v>39972</v>
@@ -36039,9 +36039,9 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="248" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B248">
         <v>6752</v>
@@ -36050,16 +36050,16 @@
         <v>107</v>
       </c>
       <c r="D248" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E248">
         <v>123</v>
       </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H248" s="1">
         <v>39993</v>
@@ -36179,9 +36179,9 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="249" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B249">
         <v>6616</v>
@@ -36190,16 +36190,16 @@
         <v>186</v>
       </c>
       <c r="D249" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E249">
         <v>123</v>
       </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H249" s="1">
         <v>39932</v>
@@ -36319,9 +36319,9 @@
         <v>39932</v>
       </c>
     </row>
-    <row r="250" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B250">
         <v>6980</v>
@@ -36330,16 +36330,16 @@
         <v>695</v>
       </c>
       <c r="D250" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E250">
         <v>123</v>
       </c>
       <c r="F250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H250" s="1">
         <v>40079</v>
@@ -36459,9 +36459,9 @@
         <v>40079</v>
       </c>
     </row>
-    <row r="251" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B251">
         <v>7056</v>
@@ -36470,16 +36470,16 @@
         <v>873</v>
       </c>
       <c r="D251" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E251">
         <v>123</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H251" s="1">
         <v>40128</v>
@@ -36599,9 +36599,9 @@
         <v>40128</v>
       </c>
     </row>
-    <row r="252" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B252">
         <v>6720</v>
@@ -36610,16 +36610,16 @@
         <v>301</v>
       </c>
       <c r="D252" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E252">
         <v>124</v>
       </c>
       <c r="F252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H252" s="1">
         <v>39976</v>
@@ -36739,9 +36739,9 @@
         <v>39976</v>
       </c>
     </row>
-    <row r="253" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B253">
         <v>6666</v>
@@ -36750,16 +36750,16 @@
         <v>459</v>
       </c>
       <c r="D253" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E253">
         <v>124</v>
       </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H253" s="1">
         <v>39952</v>
@@ -36879,9 +36879,9 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="254" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B254">
         <v>6928</v>
@@ -36890,16 +36890,16 @@
         <v>668</v>
       </c>
       <c r="D254" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E254">
         <v>124</v>
       </c>
       <c r="F254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H254" s="1">
         <v>40067</v>
@@ -37019,9 +37019,9 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="255" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B255">
         <v>6982</v>
@@ -37030,16 +37030,16 @@
         <v>722</v>
       </c>
       <c r="D255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E255">
         <v>124</v>
       </c>
       <c r="F255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H255" s="1">
         <v>40084</v>
@@ -37159,9 +37159,9 @@
         <v>40084</v>
       </c>
     </row>
-    <row r="256" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B256">
         <v>7338</v>
@@ -37170,16 +37170,16 @@
         <v>800</v>
       </c>
       <c r="D256" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E256">
         <v>124</v>
       </c>
       <c r="F256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H256" s="1">
         <v>40247</v>
@@ -37236,7 +37236,7 @@
         <v>8</v>
       </c>
       <c r="AB256" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE256">
         <v>-4</v>
@@ -37299,9 +37299,9 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="257" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B257">
         <v>7334</v>
@@ -37310,16 +37310,16 @@
         <v>972</v>
       </c>
       <c r="D257" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E257">
         <v>124</v>
       </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H257" s="1">
         <v>40247</v>
@@ -37439,9 +37439,9 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="258" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B258">
         <v>7336</v>
@@ -37450,16 +37450,16 @@
         <v>973</v>
       </c>
       <c r="D258" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E258">
         <v>124</v>
       </c>
       <c r="F258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H258" s="1">
         <v>40247</v>
@@ -37582,9 +37582,9 @@
         <v>40562</v>
       </c>
     </row>
-    <row r="259" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B259">
         <v>7102</v>
@@ -37593,16 +37593,16 @@
         <v>994</v>
       </c>
       <c r="D259" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E259">
         <v>124</v>
       </c>
       <c r="F259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H259" s="1">
         <v>40154</v>
@@ -37722,9 +37722,9 @@
         <v>40154</v>
       </c>
     </row>
-    <row r="260" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B260">
         <v>7680</v>
@@ -37733,16 +37733,16 @@
         <v>717</v>
       </c>
       <c r="D260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E260">
         <v>19</v>
       </c>
       <c r="F260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H260" s="1">
         <v>40648</v>
@@ -37862,9 +37862,9 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="261" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B261">
         <v>7642</v>
@@ -37873,16 +37873,16 @@
         <v>767</v>
       </c>
       <c r="D261" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E261">
         <v>19</v>
       </c>
       <c r="F261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H261" s="1">
         <v>40548</v>
@@ -38002,9 +38002,9 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="262" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B262">
         <v>7678</v>
@@ -38013,16 +38013,16 @@
         <v>1004</v>
       </c>
       <c r="D262" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E262">
         <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H262" s="1">
         <v>40647</v>
@@ -38142,9 +38142,9 @@
         <v>40647</v>
       </c>
     </row>
-    <row r="263" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B263">
         <v>7664</v>
@@ -38153,16 +38153,16 @@
         <v>1052</v>
       </c>
       <c r="D263" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E263">
         <v>19</v>
       </c>
       <c r="F263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H263" s="1">
         <v>40645</v>
@@ -38282,9 +38282,9 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="264" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B264">
         <v>7652</v>
@@ -38293,16 +38293,16 @@
         <v>1255</v>
       </c>
       <c r="D264" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E264">
         <v>19</v>
       </c>
       <c r="F264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H264" s="1">
         <v>40644</v>
@@ -38422,9 +38422,9 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="265" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B265">
         <v>7704</v>
@@ -38433,16 +38433,16 @@
         <v>1194</v>
       </c>
       <c r="D265" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E265">
         <v>127</v>
       </c>
       <c r="F265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H265" s="1">
         <v>40708</v>
@@ -38502,7 +38502,7 @@
         <v>8</v>
       </c>
       <c r="AB265" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE265">
         <v>-4</v>
@@ -38565,9 +38565,9 @@
         <v>40714</v>
       </c>
     </row>
-    <row r="266" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B266">
         <v>7320</v>
@@ -38576,16 +38576,16 @@
         <v>1195</v>
       </c>
       <c r="D266" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E266">
         <v>127</v>
       </c>
       <c r="F266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H266" s="1">
         <v>40241</v>
@@ -38705,9 +38705,9 @@
         <v>40241</v>
       </c>
     </row>
-    <row r="267" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B267">
         <v>7706</v>
@@ -38716,16 +38716,16 @@
         <v>1202</v>
       </c>
       <c r="D267" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E267">
         <v>127</v>
       </c>
       <c r="F267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H267" s="1">
         <v>40708</v>
@@ -38845,9 +38845,9 @@
         <v>40708</v>
       </c>
     </row>
-    <row r="268" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B268">
         <v>7708</v>
@@ -38856,16 +38856,16 @@
         <v>1203</v>
       </c>
       <c r="D268" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E268">
         <v>127</v>
       </c>
       <c r="F268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H268" s="1">
         <v>40708</v>
